--- a/data/2023/ssg/7,43_DE-12.xlsx
+++ b/data/2023/ssg/7,43_DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="238">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,13 +91,253 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>10571-5</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Gjuha shqipe</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Prishtine͏̈</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0352-1109</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>7,43</t>
+  </si>
+  <si>
+    <t>1.1982 -</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1a;Re 13</t>
+  </si>
+  <si>
+    <t>40473-1</t>
+  </si>
+  <si>
+    <t>Studime filologjike</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Tiranë</t>
+  </si>
+  <si>
+    <t>alb;fre</t>
+  </si>
+  <si>
+    <t>0563-5780</t>
+  </si>
+  <si>
+    <t>000;400</t>
+  </si>
+  <si>
+    <t>40472-X</t>
+  </si>
+  <si>
+    <t>1=18.1964 -</t>
+  </si>
+  <si>
+    <t>1a;352</t>
+  </si>
+  <si>
+    <t>824433-9</t>
+  </si>
+  <si>
+    <t>Jehona</t>
+  </si>
+  <si>
+    <t>Shkup</t>
+  </si>
+  <si>
+    <t>alb</t>
+  </si>
+  <si>
+    <t>070;320</t>
+  </si>
+  <si>
+    <t>7,41;7,43</t>
+  </si>
+  <si>
+    <t>2208507-5</t>
+  </si>
+  <si>
+    <t>1.1963 - 38.2001; 2002</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>82898-1</t>
+  </si>
+  <si>
+    <t>Jeta e re</t>
+  </si>
+  <si>
+    <t>1.1949 -</t>
+  </si>
+  <si>
+    <t>85728-2</t>
+  </si>
+  <si>
+    <t>Gjuha jone͏̈</t>
+  </si>
+  <si>
+    <t>Akad. se͏̈ Shkencave e RPSSH</t>
+  </si>
+  <si>
+    <t>Tirane͏̈</t>
+  </si>
+  <si>
+    <t>1.1981 -29.2009 ; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>540886-6</t>
+  </si>
+  <si>
+    <t>rg;mg;d</t>
+  </si>
+  <si>
+    <t>Dokumenty</t>
+  </si>
+  <si>
+    <t>Naše Vojsko</t>
+  </si>
+  <si>
+    <t>Praha</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>1.1952 -</t>
+  </si>
+  <si>
+    <t>948137-0</t>
+  </si>
+  <si>
+    <t>rb;b</t>
+  </si>
+  <si>
+    <t>Bibliografia kombe͏̈tare e Republike͏̈s se͏̈ Shqipe͏̈rise͏̈</t>
+  </si>
+  <si>
+    <t>Biblioteka Kombe͏̈tare, Sektori i Bibliogr.</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Artikujt e periodikut shqiptar = Articles of the Albanian press = Articles de la presse albanaise</t>
+  </si>
+  <si>
+    <t>40610-7</t>
+  </si>
+  <si>
+    <t>26.1986 -</t>
+  </si>
+  <si>
+    <t>996218-9</t>
+  </si>
+  <si>
+    <t>Kultura popullore</t>
+  </si>
+  <si>
+    <t>Tirana</t>
+  </si>
+  <si>
+    <t>0452-8034;0257-6082</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>7,43;24</t>
+  </si>
+  <si>
+    <t>[1.]1980,1-2; 2.1981,1=Nr. 3 -</t>
+  </si>
+  <si>
+    <t>610587-7</t>
+  </si>
+  <si>
+    <t>Anuari statistikor i R.P.Sh.</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>718226-0</t>
+  </si>
+  <si>
+    <t>1958 - 1961(1962) nachgewiesen</t>
+  </si>
+  <si>
+    <t>636478-0</t>
+  </si>
+  <si>
+    <t>Hylli i drite͏̈s</t>
+  </si>
+  <si>
+    <t>Shkode͏̈r</t>
+  </si>
+  <si>
+    <t>1816-5885</t>
+  </si>
+  <si>
+    <t>910;940;800</t>
+  </si>
+  <si>
+    <t>1.1913/20 - 5.1924; 6.1930 - 20.1944 = Nr. 1-219; 21.1993 - 25.1997 = Nr. 220-247; 26.2006=Nr. 248 -</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Re 13</t>
+  </si>
+  <si>
+    <t>Vjetari statistikor</t>
+  </si>
+  <si>
+    <t>Republika</t>
+  </si>
+  <si>
+    <t>alb;eng</t>
+  </si>
+  <si>
     <t>1304830-2</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>Nachgewiesen 1963(1964) - 1964; 1965 - 1966(1967); 1967/68(1968) - 1991; 1991/99(2002) -</t>
   </si>
   <si>
     <t>Statistika</t>
@@ -109,39 +349,18 @@
     <t>Tirane</t>
   </si>
   <si>
-    <t>alb</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>7,43</t>
-  </si>
-  <si>
     <t>1502277-8</t>
   </si>
   <si>
-    <t>718226-0</t>
-  </si>
-  <si>
     <t>Nr. 1.1992/93(1993) - 8.1994(1995); 1995 - 1998</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1313470-X</t>
   </si>
   <si>
     <t>Perpjekja</t>
   </si>
   <si>
-    <t>Tirane͏̈</t>
-  </si>
-  <si>
     <t>2073-4107</t>
   </si>
   <si>
@@ -151,9 +370,6 @@
     <t>1.1994 - 6.1999 = Nr. 1-16; 9.2003= Nr. 17-</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -175,9 +391,6 @@
     <t>Prishtina;Frankfurt, Main</t>
   </si>
   <si>
-    <t>890</t>
-  </si>
-  <si>
     <t>Seria e shkencave filologjike</t>
   </si>
   <si>
@@ -190,136 +403,124 @@
     <t>NL</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>90</t>
+  </si>
+  <si>
+    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;66;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;150;824;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840</t>
+  </si>
+  <si>
+    <t>Jehona e re</t>
+  </si>
+  <si>
+    <t>NGB Vatra</t>
+  </si>
+  <si>
+    <t>1857-6354</t>
+  </si>
+  <si>
+    <t>050;700;500</t>
+  </si>
+  <si>
+    <t>2004 -</t>
+  </si>
+  <si>
+    <t>2526472-2</t>
+  </si>
+  <si>
+    <t>Poeteka</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>Nachgewiesen Nr.2.2005-</t>
+  </si>
+  <si>
+    <t>1445159-1</t>
+  </si>
+  <si>
+    <t>mg;b</t>
+  </si>
+  <si>
+    <t>Universi Shqiptar i librit</t>
+  </si>
+  <si>
+    <t>Toena</t>
+  </si>
+  <si>
+    <t>Nr. 1.1997 - 16.2001[?]</t>
+  </si>
+  <si>
+    <t>2228272-5</t>
+  </si>
+  <si>
+    <t>Analytical bulletin linguistics</t>
+  </si>
+  <si>
+    <t>CSTID</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1.1990,1[?]</t>
+  </si>
+  <si>
+    <t>1461047-4</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>1.1997 -   ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>2173662-5</t>
+  </si>
+  <si>
+    <t>Instituti i Ghuhe͏̈sise͏̈ dhe i Lete͏̈rsise͏̈</t>
+  </si>
+  <si>
+    <t>490;890</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2002 -</t>
+  </si>
+  <si>
+    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.ceeol.com/search/journal-detail?id=890;http://www.bibliothek.uni-regensburg.de/ezeit/?2173662</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2173757-5</t>
+  </si>
+  <si>
+    <t>Studia Albanica</t>
+  </si>
+  <si>
+    <t>Tirana;Frankfurt, Main</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>910;940;390;890</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 27.1990 -</t>
+  </si>
+  <si>
+    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.bibliothek.uni-regensburg.de/ezeit/?2173757;http://www.ceeol.com/search/journal-detail?id=832</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;66;83;84;89;90;91;93;95;100;105;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;150;824;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840</t>
-  </si>
-  <si>
-    <t>540886-6</t>
-  </si>
-  <si>
-    <t>rg;mg;d</t>
-  </si>
-  <si>
-    <t>Dokumenty</t>
-  </si>
-  <si>
-    <t>Naše Vojsko</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>cze</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>1.1952 -</t>
-  </si>
-  <si>
-    <t>2208507-5</t>
-  </si>
-  <si>
-    <t>Jehona e re</t>
-  </si>
-  <si>
-    <t>NGB Vatra</t>
-  </si>
-  <si>
-    <t>Shkup</t>
-  </si>
-  <si>
-    <t>1857-6354</t>
-  </si>
-  <si>
-    <t>050;700;500</t>
-  </si>
-  <si>
-    <t>824433-9</t>
-  </si>
-  <si>
-    <t>2004 -</t>
-  </si>
-  <si>
-    <t>2526472-2</t>
-  </si>
-  <si>
-    <t>Poeteka</t>
-  </si>
-  <si>
-    <t>Tirana</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>Nachgewiesen Nr.2.2005-</t>
-  </si>
-  <si>
-    <t>1445159-1</t>
-  </si>
-  <si>
-    <t>mg;b</t>
-  </si>
-  <si>
-    <t>Universi Shqiptar i librit</t>
-  </si>
-  <si>
-    <t>Toena</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>Nr. 1.1997 - 16.2001[?]</t>
-  </si>
-  <si>
-    <t>2228272-5</t>
-  </si>
-  <si>
-    <t>Analytical bulletin linguistics</t>
-  </si>
-  <si>
-    <t>CSTID</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1.1990,1[?]</t>
-  </si>
-  <si>
-    <t>1461047-4</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Shkode͏̈r</t>
-  </si>
-  <si>
-    <t>1.1997 -   ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>610587-7</t>
-  </si>
-  <si>
-    <t>Anuari statistikor i R.P.Sh.</t>
-  </si>
-  <si>
-    <t>1958 - 1961(1962) nachgewiesen</t>
+    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;66;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;150;824;830;Hil 2;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840</t>
   </si>
   <si>
     <t>1477606-6</t>
@@ -334,24 +535,6 @@
     <t>1.1996-23, 2 (2018) = 82 ; damit Erscheinen eingestellt</t>
   </si>
   <si>
-    <t>636478-0</t>
-  </si>
-  <si>
-    <t>Hylli i drite͏̈s</t>
-  </si>
-  <si>
-    <t>1816-5885</t>
-  </si>
-  <si>
-    <t>910;940;800</t>
-  </si>
-  <si>
-    <t>1.1913/20 - 5.1924; 6.1930 - 20.1944 = Nr. 1-219; 21.1993 - 25.1997 = Nr. 220-247; 26.2006=Nr. 248 -</t>
-  </si>
-  <si>
-    <t>Re 13</t>
-  </si>
-  <si>
     <t>2578678-7</t>
   </si>
   <si>
@@ -382,10 +565,10 @@
     <t>LF</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19;20;26;29;1102;946;90;355;898;155;384;Aug 4;37;473;521;703;739;824;573;150;634;706</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>19;20;26;29;1102;946;90;355;898;155;384;Aug 4;37;473;521;703;739;824;573;150;634;706;Re 13</t>
   </si>
   <si>
     <t>Buletin statistikor 3 mujor</t>
@@ -395,186 +578,6 @@
   </si>
   <si>
     <t>1999 - 2007,2</t>
-  </si>
-  <si>
-    <t>Vjetari statistikor</t>
-  </si>
-  <si>
-    <t>Republika</t>
-  </si>
-  <si>
-    <t>alb;eng</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1963(1964) - 1964; 1965 - 1966(1967); 1967/68(1968) - 1991; 1991/99(2002) -</t>
-  </si>
-  <si>
-    <t>10571-5</t>
-  </si>
-  <si>
-    <t>Gjuha shqipe</t>
-  </si>
-  <si>
-    <t>Prishtine͏̈</t>
-  </si>
-  <si>
-    <t>0352-1109</t>
-  </si>
-  <si>
-    <t>1.1982 -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1a;Re 13</t>
-  </si>
-  <si>
-    <t>40473-1</t>
-  </si>
-  <si>
-    <t>Studime filologjike</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Tiranë</t>
-  </si>
-  <si>
-    <t>alb;fre</t>
-  </si>
-  <si>
-    <t>0563-5780</t>
-  </si>
-  <si>
-    <t>000;400</t>
-  </si>
-  <si>
-    <t>40472-X</t>
-  </si>
-  <si>
-    <t>1=18.1964 -</t>
-  </si>
-  <si>
-    <t>1a;352</t>
-  </si>
-  <si>
-    <t>82898-1</t>
-  </si>
-  <si>
-    <t>Jeta e re</t>
-  </si>
-  <si>
-    <t>1.1949 -</t>
-  </si>
-  <si>
-    <t>Jehona</t>
-  </si>
-  <si>
-    <t>070;320</t>
-  </si>
-  <si>
-    <t>7,41;7,43</t>
-  </si>
-  <si>
-    <t>1.1963 - 38.2001; 2002</t>
-  </si>
-  <si>
-    <t>85728-2</t>
-  </si>
-  <si>
-    <t>Gjuha jone͏̈</t>
-  </si>
-  <si>
-    <t>Akad. se͏̈ Shkencave e RPSSH</t>
-  </si>
-  <si>
-    <t>1.1981 -29.2009 ; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>948137-0</t>
-  </si>
-  <si>
-    <t>rb;b</t>
-  </si>
-  <si>
-    <t>Bibliografia kombe͏̈tare e Republike͏̈s se͏̈ Shqipe͏̈rise͏̈</t>
-  </si>
-  <si>
-    <t>Biblioteka Kombe͏̈tare, Sektori i Bibliogr.</t>
-  </si>
-  <si>
-    <t>Artikujt e periodikut shqiptar = Articles of the Albanian press = Articles de la presse albanaise</t>
-  </si>
-  <si>
-    <t>40610-7</t>
-  </si>
-  <si>
-    <t>26.1986 -</t>
-  </si>
-  <si>
-    <t>996218-9</t>
-  </si>
-  <si>
-    <t>Kultura popullore</t>
-  </si>
-  <si>
-    <t>0452-8034;0257-6082</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>7,43;24</t>
-  </si>
-  <si>
-    <t>[1.]1980,1-2; 2.1981,1=Nr. 3 -</t>
-  </si>
-  <si>
-    <t>2173662-5</t>
-  </si>
-  <si>
-    <t>Instituti i Ghuhe͏̈sise͏̈ dhe i Lete͏̈rsise͏̈</t>
-  </si>
-  <si>
-    <t>490;890</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2002 -</t>
-  </si>
-  <si>
-    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.ceeol.com/search/journal-detail?id=890;http://www.bibliothek.uni-regensburg.de/ezeit/?2173662</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2173757-5</t>
-  </si>
-  <si>
-    <t>Studia Albanica</t>
-  </si>
-  <si>
-    <t>Tirana;Frankfurt, Main</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>910;940;390;890</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 27.1990 -</t>
-  </si>
-  <si>
-    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.bibliothek.uni-regensburg.de/ezeit/?2173757;http://www.ceeol.com/search/journal-detail?id=832</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;66;83;84;89;90;91;93;95;100;105;109;Mh 39;180;Hed 2;289;Sa 18;291;Sa 16;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;150;824;830;Hil 2;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840</t>
   </si>
   <si>
     <t>2640178-2</t>
@@ -1162,7 +1165,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -1174,51 +1177,51 @@
         <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
         <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1227,229 +1230,229 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
         <v>58</v>
       </c>
-      <c r="V4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="s">
-        <v>60</v>
-      </c>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1458,229 +1461,229 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
         <v>58</v>
       </c>
-      <c r="V6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" t="s">
-        <v>45</v>
-      </c>
       <c r="Y6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" t="s">
         <v>58</v>
       </c>
-      <c r="V7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X7" t="s">
-        <v>38</v>
-      </c>
       <c r="Y7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1689,75 +1692,75 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1766,75 +1769,75 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1843,75 +1846,75 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" t="s">
         <v>101</v>
       </c>
-      <c r="S11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" t="s">
-        <v>38</v>
-      </c>
       <c r="Y11" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1923,67 +1926,67 @@
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1997,176 +2000,176 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="R13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Y13" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
         <v>115</v>
       </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>116</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
         <v>117</v>
       </c>
-      <c r="K14" t="s">
+      <c r="S14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" t="s">
         <v>118</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>119</v>
-      </c>
-      <c r="S14" t="s">
-        <v>120</v>
-      </c>
-      <c r="T14" t="s">
-        <v>121</v>
-      </c>
-      <c r="U14" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" t="s">
-        <v>59</v>
-      </c>
-      <c r="W14" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
         <v>124</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
         <v>33</v>
@@ -2175,51 +2178,51 @@
         <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R15" t="s">
         <v>126</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X15" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="Y15" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -2228,75 +2231,75 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="R16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X16" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="Y16" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2305,152 +2308,152 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" t="s">
         <v>58</v>
       </c>
-      <c r="V17" t="s">
-        <v>59</v>
-      </c>
-      <c r="W17" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17" t="s">
-        <v>136</v>
-      </c>
       <c r="Y17" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s">
         <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="R18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" t="s">
         <v>58</v>
       </c>
-      <c r="V18" t="s">
-        <v>59</v>
-      </c>
-      <c r="W18" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" t="s">
-        <v>136</v>
-      </c>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2459,75 +2462,75 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
         <v>149</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>53</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" t="s">
         <v>150</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" t="s">
         <v>58</v>
       </c>
-      <c r="V19" t="s">
-        <v>59</v>
-      </c>
-      <c r="W19" t="s">
-        <v>59</v>
-      </c>
-      <c r="X19" t="s">
-        <v>38</v>
-      </c>
       <c r="Y19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2536,229 +2539,229 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
         <v>153</v>
       </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" t="s">
-        <v>154</v>
-      </c>
       <c r="S20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
         <v>155</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
         <v>156</v>
-      </c>
-      <c r="E21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>53</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" t="s">
+        <v>157</v>
+      </c>
+      <c r="S21" t="s">
         <v>158</v>
       </c>
-      <c r="S21" t="s">
-        <v>32</v>
-      </c>
       <c r="T21" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X21" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="Y21" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>161</v>
       </c>
       <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
         <v>162</v>
       </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="R22" t="s">
         <v>165</v>
       </c>
       <c r="S22" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="T22" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="Y22" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2767,383 +2770,383 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" t="s">
         <v>58</v>
       </c>
-      <c r="V23" t="s">
-        <v>59</v>
-      </c>
-      <c r="W23" t="s">
-        <v>59</v>
-      </c>
-      <c r="X23" t="s">
-        <v>38</v>
-      </c>
       <c r="Y23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="S24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="U24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X24" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="Y24" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="R25" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="S25" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="U25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" t="s">
         <v>58</v>
       </c>
-      <c r="V25" t="s">
-        <v>59</v>
-      </c>
-      <c r="W25" t="s">
-        <v>32</v>
-      </c>
-      <c r="X25" t="s">
-        <v>185</v>
-      </c>
       <c r="Y25" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
         <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="U26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X26" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T27" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X27" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="Y27" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3152,75 +3155,75 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X28" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="Y28" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -3229,75 +3232,75 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
         <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s">
         <v>58</v>
       </c>
-      <c r="V29" t="s">
-        <v>59</v>
-      </c>
-      <c r="W29" t="s">
-        <v>59</v>
-      </c>
-      <c r="X29" t="s">
-        <v>38</v>
-      </c>
       <c r="Y29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -3306,75 +3309,75 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X30" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="Y30" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3383,75 +3386,75 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X31" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -3460,75 +3463,75 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s">
         <v>58</v>
       </c>
-      <c r="V32" t="s">
-        <v>59</v>
-      </c>
-      <c r="W32" t="s">
-        <v>59</v>
-      </c>
-      <c r="X32" t="s">
-        <v>38</v>
-      </c>
       <c r="Y32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -3537,70 +3540,70 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
         <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X33" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Y33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023/ssg/7,43_DE-12.xlsx
+++ b/data/2023/ssg/7,43_DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="239">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -217,6 +217,12 @@
     <t>1.1981 -29.2009 ; damit Ersch. eingest.</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>540886-6</t>
   </si>
   <si>
@@ -317,9 +323,6 @@
   </si>
   <si>
     <t>1.1913/20 - 5.1924; 6.1930 - 20.1944 = Nr. 1-219; 21.1993 - 25.1997 = Nr. 220-247; 26.2006=Nr. 248 -</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Re 13</t>
@@ -1521,33 +1524,33 @@
         <v>31</v>
       </c>
       <c r="X6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1556,7 +1559,7 @@
         <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
@@ -1580,7 +1583,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
         <v>31</v>
@@ -1606,19 +1609,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -1633,13 +1636,13 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
         <v>31</v>
@@ -1654,10 +1657,10 @@
         <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S8" t="s">
         <v>31</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1692,13 +1695,13 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1707,13 +1710,13 @@
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
         <v>31</v>
@@ -1734,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
         <v>31</v>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1769,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -1787,7 +1790,7 @@
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
@@ -1805,13 +1808,13 @@
         <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S10" t="s">
         <v>31</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1846,13 +1849,13 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
@@ -1861,10 +1864,10 @@
         <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
@@ -1888,7 +1891,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S11" t="s">
         <v>31</v>
@@ -1897,24 +1900,24 @@
         <v>31</v>
       </c>
       <c r="U11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s">
         <v>31</v>
       </c>
       <c r="X11" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1923,16 +1926,16 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
         <v>31</v>
@@ -1941,7 +1944,7 @@
         <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
@@ -1959,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
         <v>31</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2000,13 +2003,13 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -2018,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
@@ -2036,13 +2039,13 @@
         <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S13" t="s">
         <v>31</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2077,7 +2080,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -2092,10 +2095,10 @@
         <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
         <v>34</v>
@@ -2119,7 +2122,7 @@
         <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S14" t="s">
         <v>31</v>
@@ -2137,30 +2140,30 @@
         <v>31</v>
       </c>
       <c r="X14" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Y14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -2178,7 +2181,7 @@
         <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s">
         <v>31</v>
@@ -2196,13 +2199,13 @@
         <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U15" t="s">
         <v>36</v>
@@ -2214,10 +2217,10 @@
         <v>31</v>
       </c>
       <c r="X15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2231,10 +2234,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
         <v>52</v>
@@ -2246,10 +2249,10 @@
         <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -2273,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="R16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S16" t="s">
         <v>31</v>
@@ -2291,15 +2294,15 @@
         <v>31</v>
       </c>
       <c r="X16" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Y16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2308,13 +2311,13 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
         <v>53</v>
@@ -2326,7 +2329,7 @@
         <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
@@ -2350,7 +2353,7 @@
         <v>31</v>
       </c>
       <c r="R17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S17" t="s">
         <v>31</v>
@@ -2376,19 +2379,19 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
@@ -2403,7 +2406,7 @@
         <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
         <v>34</v>
@@ -2427,7 +2430,7 @@
         <v>31</v>
       </c>
       <c r="R18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s">
         <v>31</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2462,16 +2465,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
         <v>31</v>
@@ -2480,7 +2483,7 @@
         <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
@@ -2504,7 +2507,7 @@
         <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S19" t="s">
         <v>31</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2539,13 +2542,13 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -2557,7 +2560,7 @@
         <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -2581,7 +2584,7 @@
         <v>31</v>
       </c>
       <c r="R20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S20" t="s">
         <v>31</v>
@@ -2607,19 +2610,19 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
         <v>65</v>
@@ -2634,7 +2637,7 @@
         <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
@@ -2658,13 +2661,13 @@
         <v>31</v>
       </c>
       <c r="R21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U21" t="s">
         <v>31</v>
@@ -2676,33 +2679,33 @@
         <v>31</v>
       </c>
       <c r="X21" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Y21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -2711,7 +2714,7 @@
         <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s">
         <v>55</v>
@@ -2735,13 +2738,13 @@
         <v>31</v>
       </c>
       <c r="R22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U22" t="s">
         <v>36</v>
@@ -2753,15 +2756,15 @@
         <v>31</v>
       </c>
       <c r="X22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2770,13 +2773,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
         <v>53</v>
@@ -2785,10 +2788,10 @@
         <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -2812,7 +2815,7 @@
         <v>31</v>
       </c>
       <c r="R23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S23" t="s">
         <v>31</v>
@@ -2838,37 +2841,37 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
         <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
         <v>31</v>
@@ -2889,13 +2892,13 @@
         <v>31</v>
       </c>
       <c r="R24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U24" t="s">
         <v>36</v>
@@ -2907,15 +2910,15 @@
         <v>31</v>
       </c>
       <c r="X24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2924,7 +2927,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
@@ -2942,7 +2945,7 @@
         <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -2960,13 +2963,13 @@
         <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S25" t="s">
         <v>31</v>
@@ -2992,10 +2995,10 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -3004,10 +3007,10 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -3043,13 +3046,13 @@
         <v>31</v>
       </c>
       <c r="R26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U26" t="s">
         <v>31</v>
@@ -3069,19 +3072,19 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -3096,7 +3099,7 @@
         <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
         <v>55</v>
@@ -3120,13 +3123,13 @@
         <v>31</v>
       </c>
       <c r="R27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U27" t="s">
         <v>36</v>
@@ -3138,15 +3141,15 @@
         <v>31</v>
       </c>
       <c r="X27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3155,7 +3158,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -3170,13 +3173,13 @@
         <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
         <v>31</v>
@@ -3197,7 +3200,7 @@
         <v>31</v>
       </c>
       <c r="R28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S28" t="s">
         <v>31</v>
@@ -3215,15 +3218,15 @@
         <v>31</v>
       </c>
       <c r="X28" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Y28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -3232,13 +3235,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
@@ -3274,7 +3277,7 @@
         <v>31</v>
       </c>
       <c r="R29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S29" t="s">
         <v>31</v>
@@ -3300,7 +3303,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -3309,28 +3312,28 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H30" t="s">
         <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
@@ -3351,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="R30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S30" t="s">
         <v>31</v>
@@ -3369,15 +3372,15 @@
         <v>31</v>
       </c>
       <c r="X30" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Y30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3386,16 +3389,16 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
         <v>31</v>
@@ -3404,10 +3407,10 @@
         <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s">
         <v>31</v>
@@ -3428,7 +3431,7 @@
         <v>31</v>
       </c>
       <c r="R31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S31" t="s">
         <v>31</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -3463,13 +3466,13 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -3478,10 +3481,10 @@
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s">
         <v>55</v>
@@ -3505,7 +3508,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S32" t="s">
         <v>31</v>
@@ -3531,7 +3534,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -3540,10 +3543,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -3555,10 +3558,10 @@
         <v>31</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K33" t="s">
         <v>34</v>
@@ -3582,7 +3585,7 @@
         <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S33" t="s">
         <v>31</v>
